--- a/data/income_statement/2digits/size/60_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/60_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>60-Programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>60-Programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1459565.55058</v>
+        <v>1401696.60413</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1752498.82185</v>
+        <v>1687827.31357</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2071907.31129</v>
+        <v>2064700.78124</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2424212.77818</v>
+        <v>2414742.86923</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3022242.9233</v>
+        <v>3013227.41971</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3294983.25438</v>
+        <v>3289776.34008</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3577113.22758</v>
+        <v>3546532.77628</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3096937.1201</v>
+        <v>4037070.32049</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4528349.37283</v>
+        <v>4440138.662559999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3238893.14835</v>
+        <v>3150340.57443</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3299803.63077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3137244.48104</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4287066.025</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1345115.37622</v>
+        <v>1287763.76892</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1647048.00831</v>
+        <v>1582792.03449</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1890768.09788</v>
+        <v>1883587.22552</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2189306.35206</v>
+        <v>2180656.90677</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2744998.89657</v>
+        <v>2737433.85614</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2985476.04079</v>
+        <v>2981328.18995</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3144662.06937</v>
+        <v>3114505.73084</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2920324.68171</v>
+        <v>3530405.35187</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3970887.13592</v>
+        <v>3883182.29942</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2949631.64047</v>
+        <v>2861341.5547</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2933535.24714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2771529.72363</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3863312.727</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4728.53995</v>
@@ -1049,142 +965,162 @@
         <v>124552.16466</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>171496.5677</v>
+        <v>206591.99633</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>262261.13738</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>286720.03551</v>
+        <v>286636.62243</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>364633.19253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>364316.99321</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>421753.2</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>109721.63441</v>
+        <v>109204.29526</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>91853.35777000002</v>
+        <v>91437.82331000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>144493.8662</v>
+        <v>144468.20851</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>164385.31929</v>
+        <v>163564.85563</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>179422.64985</v>
+        <v>177972.18669</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>234297.53013</v>
+        <v>233238.46667</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>307898.99355</v>
+        <v>307474.8807799999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5115.870690000001</v>
+        <v>300072.97229</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>295201.0995299999</v>
+        <v>294695.22576</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2541.47237</v>
+        <v>2362.3973</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1635.1911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1397.7642</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2000.098</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>14718.88896</v>
+        <v>14597.17017</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>15404.55122</v>
+        <v>15293.96722</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>17365.41909</v>
+        <v>17358.38845</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>16224.92228</v>
+        <v>16221.08237</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>77343.94992</v>
+        <v>77343.90992000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>101471.67426</v>
+        <v>101470.56888</v>
       </c>
       <c r="I9" s="47" t="n">
         <v>172889.16042</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>133262.18929</v>
+        <v>137694.28486</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>160119.19594</v>
+        <v>159033.54256</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>156239.17169</v>
+        <v>156017.98164</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>164973.76603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>152480.53203</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>200212.796</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>14716.74284</v>
+        <v>14597.17017</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>12108.60863</v>
+        <v>11998.02463</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>13794.47381</v>
+        <v>13787.44317</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12413.15804</v>
+        <v>12409.31813</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6572.03037</v>
+        <v>6571.99037</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>33458.25969</v>
+        <v>33457.15431</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>90303.72834</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>29764.61536</v>
+        <v>34286.71093</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>45248.05316</v>
+        <v>44163.04727999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>36583.79066</v>
+        <v>36362.60061</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>33207.76832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24316.55236</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>32735.382</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2.14612</v>
+        <v>0</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>146.28499</v>
@@ -1205,7 +1141,7 @@
         <v>28186.13169</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>32760.50824</v>
+        <v>32670.50824</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>33131.91177000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>44121.29386</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>50628.273</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1247,97 +1188,112 @@
         <v>70737.06569</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>81739.23101</v>
+        <v>81738.58351000001</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>79278.34934</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>87644.70384999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>84042.68581</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>116849.141</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1444846.66162</v>
+        <v>1387099.43396</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1737094.27063</v>
+        <v>1672533.34635</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2054541.8922</v>
+        <v>2047342.39279</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2407987.8559</v>
+        <v>2398521.78686</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2944898.97338</v>
+        <v>2935883.50979</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3193511.58012</v>
+        <v>3188305.7712</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3404224.06716</v>
+        <v>3373643.61586</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2963674.93081</v>
+        <v>3899376.03563</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4368230.176890001</v>
+        <v>4281105.12</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3082653.97666</v>
+        <v>2994322.59279</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3134829.86474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2984763.94901</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4086853.229</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1223776.33802</v>
+        <v>1164594.5788</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1284891.23406</v>
+        <v>1205773.07646</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1567793.86862</v>
+        <v>1564669.54858</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1907869.22594</v>
+        <v>1900254.03422</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2400560.97947</v>
+        <v>2390300.27613</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2858074.58794</v>
+        <v>2849439.97059</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3060547.9303</v>
+        <v>3032675.72893</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2280677.88517</v>
+        <v>3132372.25288</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3616690.430600001</v>
+        <v>3533093.70764</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2767898.35989</v>
+        <v>2666359.17119</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2697680.7905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2581296.43117</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3135911.915</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>27793.23722</v>
+        <v>0</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>0</v>
@@ -1372,17 +1328,22 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>17091.64243</v>
+        <v>19.34316</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>19546.08498</v>
+        <v>827.65595</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>21940.2505</v>
@@ -1391,7 +1352,7 @@
         <v>29954.04872</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>30979.36251</v>
+        <v>30806.93581</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>48934.19508</v>
@@ -1400,10 +1361,10 @@
         <v>2440.03756</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>212.64277</v>
+        <v>1222.68718</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>101093.30966</v>
+        <v>62387.5805</v>
       </c>
       <c r="L16" s="48" t="n">
         <v>434.3739</v>
@@ -1411,56 +1372,66 @@
       <c r="M16" s="48" t="n">
         <v>67.15502000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1206672.30827</v>
+        <v>1164562.84832</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1259936.81234</v>
+        <v>1199538.58377</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1545095.91612</v>
+        <v>1541971.59608</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1873261.21195</v>
+        <v>1865646.02023</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2359284.95732</v>
+        <v>2349196.68068</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2802649.28794</v>
+        <v>2794014.67059</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3020848.56892</v>
+        <v>3020769.60477</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2273110.82976</v>
+        <v>3123795.15306</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3513347.80297</v>
+        <v>3468456.80917</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2759547.34224</v>
+        <v>2658008.15354</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2694079.27982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2577694.92049</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3124992.646</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>12.38732</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5408.336740000001</v>
+        <v>5406.836740000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>757.702</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>3534.35566</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>10919.269</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>221070.3236</v>
+        <v>222504.85516</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>452203.03657</v>
+        <v>466760.26989</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>486748.02358</v>
+        <v>482672.84421</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>500118.62996</v>
+        <v>498267.75264</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>544337.99391</v>
+        <v>545583.2336599999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>335436.99218</v>
+        <v>338865.80061</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>343676.13686</v>
+        <v>340967.88693</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>682997.04564</v>
+        <v>767003.78275</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>751539.7462899999</v>
+        <v>748011.41236</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>314755.61677</v>
+        <v>327963.4216</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>437149.07424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>403467.51784</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>950941.314</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>335475.64775</v>
+        <v>289701.2454</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>426711.63751</v>
+        <v>386505.97662</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>435157.03268</v>
+        <v>422637.0527</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>554433.55172</v>
+        <v>538599.9676</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>586906.4165599999</v>
+        <v>567073.80918</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>600978.9742000001</v>
+        <v>582111.0109</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>593842.4687000001</v>
+        <v>564114.0600299999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>638399.23982</v>
+        <v>641640.08465</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>764314.6256400001</v>
+        <v>725366.97929</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>613073.7997100001</v>
+        <v>576096.22444</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>629773.09024</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>553039.62682</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>684359.439</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>161925.29628</v>
+        <v>158872.10188</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>233856.94925</v>
+        <v>222373.15024</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>205542.26706</v>
+        <v>205358.34196</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>257306.74338</v>
+        <v>256904.19299</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>287651.40567</v>
+        <v>286862.69893</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>303413.95836</v>
+        <v>302934.65392</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>300740.42896</v>
+        <v>297609.30392</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>318756.97064</v>
+        <v>341262.8168</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>377720.22352</v>
+        <v>370759.1560899999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>316919.9452200001</v>
+        <v>301744.87608</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>315099.27626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>293343.83132</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>394992.024</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>173550.35147</v>
+        <v>130829.14352</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>192854.68826</v>
+        <v>164132.82638</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>229614.76562</v>
+        <v>217278.71074</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>297126.80834</v>
+        <v>281695.77461</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>299255.01089</v>
+        <v>280211.11025</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>297565.01584</v>
+        <v>279176.35698</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>293102.03974</v>
+        <v>266504.75611</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>319642.26918</v>
+        <v>300377.26785</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>386594.40212</v>
+        <v>354607.8232</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>296153.85449</v>
+        <v>274351.34836</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>314673.81398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>259695.7955</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>289367.415</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-114405.32415</v>
+        <v>-67196.39023999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>25491.39906</v>
+        <v>80254.29326999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>51590.9909</v>
+        <v>60035.79151</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-54314.92176</v>
+        <v>-40332.21496</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-42568.42265</v>
+        <v>-21490.57552</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-265541.98202</v>
+        <v>-243245.21029</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-250166.33184</v>
+        <v>-223146.1731</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>44597.80582</v>
+        <v>125363.6981</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-12774.87935</v>
+        <v>22644.43307</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-298318.18294</v>
+        <v>-248132.80284</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-192624.016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-149572.10898</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>266581.875</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>199027.33376</v>
+        <v>166042.8014</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>112038.19749</v>
+        <v>83218.12351</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>100469.35472</v>
+        <v>86203.6473</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>73379.30881999999</v>
+        <v>62861.0043</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>94417.82685</v>
+        <v>84968.64208000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>98554.70504</v>
+        <v>67870.40506999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>275625.15712</v>
+        <v>249886.8769</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>451699.99031</v>
+        <v>360492.91757</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>362122.32751</v>
+        <v>331033.07359</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>455569.546</v>
+        <v>263351.23906</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>658609.1552799999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>135449.48244</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>206022.602</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>307.95854</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7226.66162</v>
+        <v>758.95647</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7752.98377</v>
+        <v>6255.04904</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8783.108249999999</v>
+        <v>8326.940849999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7583.46091</v>
+        <v>7531.97697</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8302.07626</v>
+        <v>7795.23839</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30295.92357</v>
+        <v>13423.92109</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>34306.30121</v>
+        <v>15053.17132</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11389.07805</v>
+        <v>7957.3934</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>20751.79138</v>
+        <v>18494.67797</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>58104.50438000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>71941.18028</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>67914.03228</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>86410.674</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1907,28 +1933,33 @@
         <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>21.00869</v>
+        <v>10</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6017.80248</v>
+        <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5945.75891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1.501</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2083.70242</v>
+        <v>2078.44539</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2913.95836</v>
+        <v>2903.90021</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>4518.27056</v>
@@ -1937,37 +1968,42 @@
         <v>1565.19792</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2901.99517</v>
+        <v>2881.06006</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8682.153920000001</v>
+        <v>8678.073920000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>6414.04773</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>680.27019</v>
+        <v>708.27846</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2966.0359</v>
+        <v>2965.92596</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>3105.46048</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3956.66429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3929.13715</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3981.472</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>13.28929</v>
+        <v>0.56486</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1.12498</v>
+        <v>0</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>1.20551</v>
@@ -1982,7 +2018,7 @@
         <v>18.24743</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>12.37305</v>
+        <v>11.61309</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>25.24086</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>118.59853</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>45.822</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>102445.04058</v>
+        <v>82358.57462999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>43575.25635</v>
+        <v>41443.02368</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>60343.11866000001</v>
+        <v>48692.19992</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>45548.47536</v>
+        <v>35368.24701</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>69321.11223</v>
+        <v>60765.8104</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>40004.49372</v>
+        <v>26201.68707</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>220253.50799</v>
+        <v>215090.89552</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>353152.11504</v>
+        <v>340146.22799</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>308591.62435</v>
+        <v>298228.76407</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>340810.18774</v>
+        <v>191746.50434</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>505136.40008</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>36973.97166</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>89816.34699999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>45516.77505</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>41433.90626</v>
+        <v>35021.52646</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>57794.87402999999</v>
+        <v>32616.15058</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>26543.58886</v>
+        <v>24384.96758</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16432.69049</v>
+        <v>16146.09826</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11094.05659</v>
+        <v>10727.94663</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>9163.107699999999</v>
+        <v>9157.69686</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>14638.92714</v>
+        <v>13317.14924</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>86432.27748</v>
+        <v>11645.77686</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>29657.60056</v>
+        <v>11188.43027</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>47463.38252000001</v>
+        <v>10326.56146</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>71510.55318999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>26513.74282</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>25766.786</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>162526.02276</v>
+        <v>151301.88662</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>91338.34212999999</v>
+        <v>88262.61934</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>113931.37813</v>
+        <v>94442.37670000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>97655.71298000001</v>
+        <v>92237.35956</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>251424.3522</v>
+        <v>235231.79043</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>164249.81611</v>
+        <v>152442.74468</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>493684.54811</v>
+        <v>486506.90328</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>580550.23711</v>
+        <v>604953.54031</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>395233.62219</v>
+        <v>381559.46886</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>516670.52852</v>
+        <v>361860.23358</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>594333.8715499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>115682.40867</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>87464.167</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>17483.90517</v>
+        <v>17246.95414</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>26037.91019</v>
+        <v>25495.99586</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>36767.01238</v>
@@ -2216,64 +2282,74 @@
         <v>71437.69408</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>94529.36675</v>
+        <v>92414.07178</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2544.02986</v>
+        <v>115287.88694</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>100603.61797</v>
+        <v>100115.38765</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3837.19271</v>
+        <v>347.50695</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>3520.4207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>209.44444</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>526.2089999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>13609.53261</v>
+        <v>13363.39516</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15960.0158</v>
+        <v>15789.26098</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>18435.18192</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>22034.80657</v>
+        <v>21969.74183</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9985.118920000001</v>
+        <v>9754.55199</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4312.245629999999</v>
+        <v>4294.54563</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>5987.94139</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9148.723330000001</v>
+        <v>10268.63603</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11415.89844</v>
+        <v>11293.98441</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>16256.57579</v>
+        <v>16245.70091</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>14527.80513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>14432.55049</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>7596.298</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>130912.84835</v>
+        <v>120671.47235</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>46649.12695</v>
+        <v>44675.90304</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>52249.40537</v>
+        <v>32760.40394</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>27291.33202</v>
+        <v>21938.04334</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>176108.91975</v>
+        <v>160146.92491</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>86776.82358</v>
+        <v>74987.45215000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>392142.71207</v>
+        <v>387080.36221</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>477255.67293</v>
+        <v>478442.94605</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>282917.59102</v>
+        <v>269864.90353</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>490978.97038</v>
+        <v>339669.23608</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>576103.41435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>100858.18237</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>72971.53599999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>519.73663</v>
+        <v>20.06497</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2691.28919</v>
+        <v>2301.45946</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>4229.224</v>
@@ -2453,10 +2549,10 @@
         <v>1024.5279</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>91601.81099</v>
+        <v>954.0712900000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>296.51476</v>
+        <v>285.19327</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>5597.78964</v>
@@ -2464,92 +2560,107 @@
       <c r="M43" s="48" t="n">
         <v>182.23137</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>6370.124</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>66824.90247999999</v>
+        <v>51600.69027000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>58990.07914</v>
+        <v>46689.47503</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>99454.04729999999</v>
+        <v>95155.82974</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>101217.67365</v>
+        <v>97252.17006</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>172781.14471</v>
+        <v>154312.27561</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>226491.53121</v>
+        <v>193532.18313</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>309415.43959</v>
+        <v>288116.78155</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>467098.99363</v>
+        <v>401500.62094</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>404172.22855</v>
+        <v>396789.51761</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>832947.26625</v>
+        <v>832631.78016</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>625054.7404199999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>618819.02961</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>222223.158</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>61287.4219</v>
+        <v>51363.57614</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>48695.10389</v>
+        <v>36394.49978</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>70564.07543000001</v>
+        <v>66265.85786999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>82911.0059</v>
+        <v>78945.50231</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>135262.77343</v>
+        <v>116793.90433</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>198926.40618</v>
+        <v>165967.0581</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>295574.85432</v>
+        <v>274276.19628</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>467070.71759</v>
+        <v>401472.3449</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>397590.22855</v>
+        <v>390207.51761</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>827944.68328</v>
+        <v>827629.1971900001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>625054.7404199999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>618819.02961</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>222223.158</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5537.48058</v>
+        <v>237.11413</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>10294.97525</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-144728.91563</v>
+        <v>-104056.16573</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-12798.82472</v>
+        <v>28520.32241</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-61325.07981</v>
+        <v>-43358.76763</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-179808.99957</v>
+        <v>-166960.74028</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-372356.09271</v>
+        <v>-326065.99948</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-557728.6242999999</v>
+        <v>-521349.7330299999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-777641.1624199999</v>
+        <v>-747882.98103</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-551351.43461</v>
+        <v>-520597.54558</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-450058.4025800001</v>
+        <v>-424671.47981</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1192366.43171</v>
+        <v>-1179273.57752</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-753403.4726900001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-748624.0648200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>162917.152</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>52295.87581000001</v>
+        <v>50229.99036</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>9599.563189999999</v>
+        <v>8012.27433</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19706.35556</v>
+        <v>19574.99738</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>8011.07523</v>
+        <v>7995.030360000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6310.52905</v>
+        <v>6046.273</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7934.975</v>
+        <v>7640.338269999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6941.024219999999</v>
+        <v>6751.78782</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11338.9952</v>
+        <v>9602.836160000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>72141.81743000001</v>
+        <v>70977.03005999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23120.12156</v>
+        <v>22613.55985</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11268.66576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>9923.52822</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>13587.71</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>443.27075</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>272.27653</v>
+        <v>154.22941</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>434.86001</v>
@@ -2687,100 +2813,115 @@
         <v>133.43728</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2484.94332</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>3.81282</v>
+        <v>0</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>955.5015100000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>219.97864</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1366.606</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>51852.60506</v>
+        <v>49786.71961</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>9327.28666</v>
+        <v>7858.04492</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19271.49555</v>
+        <v>19140.13737</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6572.96306</v>
+        <v>6556.91819</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>5981.32015</v>
+        <v>5717.0641</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7827.59132</v>
+        <v>7532.95459</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>6807.586939999999</v>
+        <v>6618.35054</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11338.7272</v>
+        <v>9602.836160000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>69656.87411</v>
+        <v>68492.08674</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>23116.30874</v>
+        <v>22613.55985</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10313.16425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9703.549580000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12221.104</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>60002.09440000001</v>
+        <v>59598.37378</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>67219.70810999999</v>
+        <v>63617.95228</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>91755.43031</v>
+        <v>49277.29573</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>24550.25362</v>
+        <v>24548.20419</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>14779.84394</v>
+        <v>14771.13137</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>187361.49623</v>
+        <v>187361.48823</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>16795.32219</v>
+        <v>16767.5509</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>27475.81157</v>
+        <v>23268.68428</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>23350.35483</v>
+        <v>22100.72695</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>24254.17891</v>
+        <v>23632.68288</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>22248.26927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21470.98638</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>25907.884</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5164.90996</v>
+        <v>4765.89549</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1086.91576</v>
+        <v>938.47447</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>248.47017</v>
@@ -2843,100 +2989,115 @@
         <v>499.97793</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>725.72704</v>
+        <v>679.29904</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>550.99469</v>
+        <v>549.8808100000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2267.95959</v>
+        <v>2267.63059</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1550.86091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>773.57802</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1604.872</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>54837.18444</v>
+        <v>54832.47829</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>66132.79235</v>
+        <v>62679.47781</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>91506.96014</v>
+        <v>49028.82556</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>23048.30316</v>
+        <v>23046.25373</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>13877.62233</v>
+        <v>13868.90976</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>185663.25198</v>
+        <v>185663.24398</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16295.34426</v>
+        <v>16267.57297</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>26750.08453</v>
+        <v>22589.38524</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>22799.36014</v>
+        <v>21550.84614</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>21986.21932</v>
+        <v>21365.05229</v>
       </c>
       <c r="M54" s="48" t="n">
         <v>20697.40836</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>24303.012</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-152435.13422</v>
+        <v>-113424.54915</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-70418.96964</v>
+        <v>-27085.35554</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-133374.15456</v>
+        <v>-73061.06598</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-196348.17796</v>
+        <v>-183513.91411</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-380825.4076</v>
+        <v>-334790.85785</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-737155.14553</v>
+        <v>-701070.88299</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-787495.46039</v>
+        <v>-757898.74411</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-567488.25098</v>
+        <v>-534263.3937</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-401266.93998</v>
+        <v>-375795.1767000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1193500.48906</v>
+        <v>-1180292.70055</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-764383.0762</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-760171.52298</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>150596.978</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>9834.060109999999</v>
@@ -2945,13 +3106,13 @@
         <v>43870.22678</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>42106.38303</v>
+        <v>42087.05942000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>34780.43913000001</v>
+        <v>34763.5426</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>17168.97801</v>
+        <v>17000.47027</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>0</v>
@@ -2960,58 +3121,66 @@
         <v>254.48626</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>199.74919</v>
+        <v>2433.92426</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2064.22506</v>
+        <v>1089.78375</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>4819.71767</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2887.85646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1062.13246</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>22777.263</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-162269.19433</v>
+        <v>-123258.60926</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-114289.19642</v>
+        <v>-70955.58231999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-175480.53759</v>
+        <v>-115148.1254</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-231128.61709</v>
+        <v>-218277.45671</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-397994.3856099999</v>
+        <v>-351791.32812</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-737155.14553</v>
+        <v>-701070.88299</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-787749.9466499999</v>
+        <v>-758153.23037</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-567688.00017</v>
+        <v>-536697.31796</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-403331.16504</v>
+        <v>-376884.9604500001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1198320.20673</v>
+        <v>-1185112.41822</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-767270.9326599999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-761233.65544</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>127819.715</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>15</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>17</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>23</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>25</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L59" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>14</v>
       </c>
-      <c r="M59" s="35" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>